--- a/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - revised on 5 Mar 24.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - revised on 5 Mar 24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Citi Bank Dolmen Sky Tower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD55D0-19AE-40B9-8EFB-007272D29843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6348C1-ECA7-4D62-9F20-7E4107B2B615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand Summary" sheetId="65" r:id="rId1"/>
@@ -4761,6 +4761,18 @@
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4782,6 +4794,42 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4791,46 +4839,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="88" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4845,6 +4860,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4863,71 +4929,38 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4935,24 +4968,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4963,21 +4978,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5034,6 +5034,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>498230</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226078</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C312D05-F791-F905-28C5-8B03FA33F03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6161942" y="0"/>
+          <a:ext cx="6563867" cy="7106642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -5079,7 +5128,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5249,7 +5298,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5584,7 +5633,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -24663,8 +24712,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -24685,20 +24734,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="629" t="s">
+      <c r="A3" s="633" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="629"/>
-      <c r="C3" s="629"/>
-      <c r="D3" s="629"/>
+      <c r="B3" s="633"/>
+      <c r="C3" s="633"/>
+      <c r="D3" s="633"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="630" t="s">
+      <c r="A4" s="634" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="630"/>
-      <c r="C4" s="630"/>
-      <c r="D4" s="630"/>
+      <c r="B4" s="634"/>
+      <c r="C4" s="634"/>
+      <c r="D4" s="634"/>
       <c r="E4" s="362"/>
       <c r="F4" s="362"/>
       <c r="G4" s="362"/>
@@ -24715,12 +24764,12 @@
       <c r="G5" s="362"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="631" t="s">
+      <c r="A6" s="635" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="631"/>
-      <c r="C6" s="631"/>
-      <c r="D6" s="631"/>
+      <c r="B6" s="635"/>
+      <c r="C6" s="635"/>
+      <c r="D6" s="635"/>
       <c r="E6" s="363"/>
       <c r="F6" s="363"/>
       <c r="G6" s="363"/>
@@ -24734,12 +24783,12 @@
       <c r="G7" s="364"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="630" t="s">
+      <c r="A8" s="634" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="630"/>
-      <c r="C8" s="630"/>
-      <c r="D8" s="630"/>
+      <c r="B8" s="634"/>
+      <c r="C8" s="634"/>
+      <c r="D8" s="634"/>
       <c r="E8" s="362"/>
       <c r="F8" s="362"/>
       <c r="G8" s="362"/>
@@ -24893,11 +24942,11 @@
       <c r="A20" s="380" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="632" t="s">
+      <c r="B20" s="636" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="632"/>
-      <c r="D20" s="632"/>
+      <c r="C20" s="636"/>
+      <c r="D20" s="636"/>
       <c r="E20" s="383"/>
       <c r="F20" s="383"/>
       <c r="G20" s="383"/>
@@ -24906,11 +24955,11 @@
       <c r="A21" s="380" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="632" t="s">
+      <c r="B21" s="636" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="632"/>
-      <c r="D21" s="632"/>
+      <c r="C21" s="636"/>
+      <c r="D21" s="636"/>
       <c r="E21" s="386"/>
       <c r="F21" s="385"/>
       <c r="G21" s="385"/>
@@ -24919,11 +24968,11 @@
       <c r="A22" s="380" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="628" t="s">
+      <c r="B22" s="632" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="628"/>
-      <c r="D22" s="628"/>
+      <c r="C22" s="632"/>
+      <c r="D22" s="632"/>
       <c r="E22" s="386"/>
       <c r="F22" s="385"/>
       <c r="G22" s="385"/>
@@ -24932,21 +24981,21 @@
       <c r="A23" s="361" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="627" t="s">
+      <c r="B23" s="631" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="627"/>
-      <c r="D23" s="627"/>
+      <c r="C23" s="631"/>
+      <c r="D23" s="631"/>
     </row>
     <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="626" t="s">
+      <c r="B24" s="630" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="626"/>
-      <c r="D24" s="626"/>
+      <c r="C24" s="630"/>
+      <c r="D24" s="630"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -24967,6 +25016,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LStudio Subtractive</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25107,29 +25157,29 @@
       <c r="D7" s="9"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
-      <c r="G7" s="644" t="s">
+      <c r="G7" s="639" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="645"/>
-      <c r="I7" s="646" t="s">
+      <c r="H7" s="640"/>
+      <c r="I7" s="641" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="646"/>
+      <c r="J7" s="641"/>
       <c r="K7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="636" t="s">
+      <c r="L7" s="642" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="636" t="s">
+      <c r="M7" s="642" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="638" t="s">
+      <c r="A8" s="652" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="639"/>
+      <c r="B8" s="653"/>
       <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
@@ -25157,8 +25207,8 @@
       <c r="K8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="637"/>
-      <c r="M8" s="637"/>
+      <c r="L8" s="643"/>
+      <c r="M8" s="643"/>
     </row>
     <row r="9" spans="1:16" s="10" customFormat="1" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
@@ -25498,10 +25548,10 @@
         <f>J19+H19</f>
         <v>493776</v>
       </c>
-      <c r="L19" s="641" t="s">
+      <c r="L19" s="644" t="s">
         <v>317</v>
       </c>
-      <c r="M19" s="641" t="s">
+      <c r="M19" s="644" t="s">
         <v>333</v>
       </c>
     </row>
@@ -25538,8 +25588,8 @@
         <f>J20+H20</f>
         <v>2468880</v>
       </c>
-      <c r="L20" s="641"/>
-      <c r="M20" s="641"/>
+      <c r="L20" s="644"/>
+      <c r="M20" s="644"/>
     </row>
     <row r="21" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
@@ -25574,8 +25624,8 @@
         <f>J21+H21</f>
         <v>493776</v>
       </c>
-      <c r="L21" s="641"/>
-      <c r="M21" s="641"/>
+      <c r="L21" s="644"/>
+      <c r="M21" s="644"/>
     </row>
     <row r="22" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
@@ -25610,8 +25660,8 @@
         <f>J22+H22</f>
         <v>499510</v>
       </c>
-      <c r="L22" s="641"/>
-      <c r="M22" s="641"/>
+      <c r="L22" s="644"/>
+      <c r="M22" s="644"/>
     </row>
     <row r="23" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
@@ -25646,8 +25696,8 @@
         <f>J23+H23</f>
         <v>499510</v>
       </c>
-      <c r="L23" s="641"/>
-      <c r="M23" s="641"/>
+      <c r="L23" s="644"/>
+      <c r="M23" s="644"/>
     </row>
     <row r="24" spans="1:16" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="128"/>
@@ -25668,8 +25718,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="135"/>
-      <c r="L24" s="641"/>
-      <c r="M24" s="641"/>
+      <c r="L24" s="644"/>
+      <c r="M24" s="644"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
@@ -25704,8 +25754,8 @@
         <f>J25+H25</f>
         <v>173000</v>
       </c>
-      <c r="L25" s="641"/>
-      <c r="M25" s="641"/>
+      <c r="L25" s="644"/>
+      <c r="M25" s="644"/>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
@@ -25740,8 +25790,8 @@
         <f>J26+H26</f>
         <v>1038000</v>
       </c>
-      <c r="L26" s="641"/>
-      <c r="M26" s="641"/>
+      <c r="L26" s="644"/>
+      <c r="M26" s="644"/>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
@@ -25776,8 +25826,8 @@
         <f>J27+H27</f>
         <v>1730000</v>
       </c>
-      <c r="L27" s="641"/>
-      <c r="M27" s="641"/>
+      <c r="L27" s="644"/>
+      <c r="M27" s="644"/>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
@@ -25812,8 +25862,8 @@
         <f>J28+H28</f>
         <v>1211000</v>
       </c>
-      <c r="L28" s="642"/>
-      <c r="M28" s="642"/>
+      <c r="L28" s="645"/>
+      <c r="M28" s="645"/>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="300">
@@ -25863,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="641" t="s">
+      <c r="L30" s="644" t="s">
         <v>318</v>
       </c>
-      <c r="M30" s="641" t="s">
+      <c r="M30" s="644" t="s">
         <v>321</v>
       </c>
     </row>
@@ -25893,8 +25943,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="641"/>
-      <c r="M31" s="641"/>
+      <c r="L31" s="644"/>
+      <c r="M31" s="644"/>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
@@ -25931,8 +25981,8 @@
         <f>J32+H32</f>
         <v>111000</v>
       </c>
-      <c r="L32" s="641"/>
-      <c r="M32" s="641"/>
+      <c r="L32" s="644"/>
+      <c r="M32" s="644"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
@@ -25957,8 +26007,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="641"/>
-      <c r="M33" s="641"/>
+      <c r="L33" s="644"/>
+      <c r="M33" s="644"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
@@ -25996,8 +26046,8 @@
         <f>J34+H34</f>
         <v>27750</v>
       </c>
-      <c r="L34" s="641"/>
-      <c r="M34" s="641"/>
+      <c r="L34" s="644"/>
+      <c r="M34" s="644"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
@@ -26022,8 +26072,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="30"/>
-      <c r="L35" s="641"/>
-      <c r="M35" s="641"/>
+      <c r="L35" s="644"/>
+      <c r="M35" s="644"/>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
@@ -26061,8 +26111,8 @@
         <f>J36+H36</f>
         <v>61500</v>
       </c>
-      <c r="L36" s="642"/>
-      <c r="M36" s="642"/>
+      <c r="L36" s="645"/>
+      <c r="M36" s="645"/>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="504"/>
@@ -26481,10 +26531,10 @@
         <f>J48+H48</f>
         <v>37000</v>
       </c>
-      <c r="L48" s="641" t="s">
+      <c r="L48" s="644" t="s">
         <v>318</v>
       </c>
-      <c r="M48" s="641" t="s">
+      <c r="M48" s="644" t="s">
         <v>321</v>
       </c>
     </row>
@@ -26523,8 +26573,8 @@
         <f>J49+H49</f>
         <v>100000</v>
       </c>
-      <c r="L49" s="641"/>
-      <c r="M49" s="641"/>
+      <c r="L49" s="644"/>
+      <c r="M49" s="644"/>
     </row>
     <row r="50" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="128"/>
@@ -26549,8 +26599,8 @@
         <v>0</v>
       </c>
       <c r="K50" s="135"/>
-      <c r="L50" s="641"/>
-      <c r="M50" s="641"/>
+      <c r="L50" s="644"/>
+      <c r="M50" s="644"/>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
@@ -26588,8 +26638,8 @@
         <f>J51+H51</f>
         <v>8500</v>
       </c>
-      <c r="L51" s="641"/>
-      <c r="M51" s="641"/>
+      <c r="L51" s="644"/>
+      <c r="M51" s="644"/>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
@@ -26627,8 +26677,8 @@
         <f>J52+H52</f>
         <v>21600</v>
       </c>
-      <c r="L52" s="641"/>
-      <c r="M52" s="641"/>
+      <c r="L52" s="644"/>
+      <c r="M52" s="644"/>
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
@@ -26653,8 +26703,8 @@
         <v>0</v>
       </c>
       <c r="K53" s="32"/>
-      <c r="L53" s="641"/>
-      <c r="M53" s="641"/>
+      <c r="L53" s="644"/>
+      <c r="M53" s="644"/>
     </row>
     <row r="54" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41"/>
@@ -26692,8 +26742,8 @@
         <f>J54+H54</f>
         <v>19500</v>
       </c>
-      <c r="L54" s="641"/>
-      <c r="M54" s="641"/>
+      <c r="L54" s="644"/>
+      <c r="M54" s="644"/>
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
@@ -26731,8 +26781,8 @@
         <f>J55+H55</f>
         <v>46000</v>
       </c>
-      <c r="L55" s="642"/>
-      <c r="M55" s="642"/>
+      <c r="L55" s="645"/>
+      <c r="M55" s="645"/>
     </row>
     <row r="56" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
@@ -27672,10 +27722,10 @@
         <f>J81+H81</f>
         <v>378000</v>
       </c>
-      <c r="L81" s="647" t="s">
+      <c r="L81" s="646" t="s">
         <v>319</v>
       </c>
-      <c r="M81" s="633" t="s">
+      <c r="M81" s="649" t="s">
         <v>328</v>
       </c>
     </row>
@@ -27702,8 +27752,8 @@
         <v>0</v>
       </c>
       <c r="K82" s="619"/>
-      <c r="L82" s="648"/>
-      <c r="M82" s="634"/>
+      <c r="L82" s="647"/>
+      <c r="M82" s="650"/>
     </row>
     <row r="83" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
@@ -27738,8 +27788,8 @@
         <f t="shared" ref="K83:K88" si="4">J83+H83</f>
         <v>26000</v>
       </c>
-      <c r="L83" s="648"/>
-      <c r="M83" s="634"/>
+      <c r="L83" s="647"/>
+      <c r="M83" s="650"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
@@ -27774,8 +27824,8 @@
         <f t="shared" si="4"/>
         <v>52500</v>
       </c>
-      <c r="L84" s="648"/>
-      <c r="M84" s="634"/>
+      <c r="L84" s="647"/>
+      <c r="M84" s="650"/>
     </row>
     <row r="85" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
@@ -27810,8 +27860,8 @@
         <f t="shared" si="4"/>
         <v>132000</v>
       </c>
-      <c r="L85" s="648"/>
-      <c r="M85" s="634"/>
+      <c r="L85" s="647"/>
+      <c r="M85" s="650"/>
     </row>
     <row r="86" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
@@ -27847,8 +27897,8 @@
         <f t="shared" si="4"/>
         <v>204000</v>
       </c>
-      <c r="L86" s="648"/>
-      <c r="M86" s="634"/>
+      <c r="L86" s="647"/>
+      <c r="M86" s="650"/>
     </row>
     <row r="87" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="41"/>
@@ -27884,8 +27934,8 @@
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="L87" s="648"/>
-      <c r="M87" s="634"/>
+      <c r="L87" s="647"/>
+      <c r="M87" s="650"/>
     </row>
     <row r="88" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
@@ -27921,8 +27971,8 @@
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L88" s="648"/>
-      <c r="M88" s="634"/>
+      <c r="L88" s="647"/>
+      <c r="M88" s="650"/>
     </row>
     <row r="89" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
@@ -27947,8 +27997,8 @@
         <v>0</v>
       </c>
       <c r="K89" s="619"/>
-      <c r="L89" s="648"/>
-      <c r="M89" s="634"/>
+      <c r="L89" s="647"/>
+      <c r="M89" s="650"/>
     </row>
     <row r="90" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="41"/>
@@ -27983,8 +28033,8 @@
         <f>J90+H90</f>
         <v>202500</v>
       </c>
-      <c r="L90" s="648"/>
-      <c r="M90" s="634"/>
+      <c r="L90" s="647"/>
+      <c r="M90" s="650"/>
     </row>
     <row r="91" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="41"/>
@@ -28019,8 +28069,8 @@
         <f>J91+H91</f>
         <v>78750</v>
       </c>
-      <c r="L91" s="648"/>
-      <c r="M91" s="634"/>
+      <c r="L91" s="647"/>
+      <c r="M91" s="650"/>
     </row>
     <row r="92" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="41"/>
@@ -28045,8 +28095,8 @@
         <v>0</v>
       </c>
       <c r="K92" s="619"/>
-      <c r="L92" s="648"/>
-      <c r="M92" s="634"/>
+      <c r="L92" s="647"/>
+      <c r="M92" s="650"/>
     </row>
     <row r="93" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="96"/>
@@ -28081,8 +28131,8 @@
         <f>J93+H93</f>
         <v>75000</v>
       </c>
-      <c r="L93" s="649"/>
-      <c r="M93" s="635"/>
+      <c r="L93" s="648"/>
+      <c r="M93" s="651"/>
     </row>
     <row r="94" spans="1:13" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="517">
@@ -29046,51 +29096,51 @@
       <c r="M120" s="37"/>
     </row>
     <row r="121" spans="1:13" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="640" t="s">
+      <c r="A121" s="637" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="640"/>
-      <c r="C121" s="640"/>
-      <c r="D121" s="640"/>
-      <c r="E121" s="640"/>
-      <c r="F121" s="640"/>
-      <c r="G121" s="640"/>
-      <c r="H121" s="640"/>
-      <c r="I121" s="640"/>
-      <c r="J121" s="640"/>
-      <c r="K121" s="640"/>
+      <c r="B121" s="637"/>
+      <c r="C121" s="637"/>
+      <c r="D121" s="637"/>
+      <c r="E121" s="637"/>
+      <c r="F121" s="637"/>
+      <c r="G121" s="637"/>
+      <c r="H121" s="637"/>
+      <c r="I121" s="637"/>
+      <c r="J121" s="637"/>
+      <c r="K121" s="637"/>
       <c r="L121" s="598"/>
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="1:13" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="640" t="s">
+      <c r="A122" s="637" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="640"/>
-      <c r="C122" s="640"/>
-      <c r="D122" s="640"/>
-      <c r="E122" s="640"/>
-      <c r="F122" s="640"/>
-      <c r="G122" s="640"/>
-      <c r="H122" s="640"/>
-      <c r="I122" s="640"/>
-      <c r="J122" s="640"/>
-      <c r="K122" s="640"/>
+      <c r="B122" s="637"/>
+      <c r="C122" s="637"/>
+      <c r="D122" s="637"/>
+      <c r="E122" s="637"/>
+      <c r="F122" s="637"/>
+      <c r="G122" s="637"/>
+      <c r="H122" s="637"/>
+      <c r="I122" s="637"/>
+      <c r="J122" s="637"/>
+      <c r="K122" s="637"/>
       <c r="L122" s="599"/>
       <c r="M122" s="23"/>
     </row>
     <row r="123" spans="1:13" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="643"/>
-      <c r="B123" s="643"/>
-      <c r="C123" s="643"/>
-      <c r="D123" s="643"/>
-      <c r="E123" s="643"/>
-      <c r="F123" s="643"/>
-      <c r="G123" s="643"/>
-      <c r="H123" s="643"/>
-      <c r="I123" s="643"/>
-      <c r="J123" s="643"/>
-      <c r="K123" s="643"/>
+      <c r="A123" s="638"/>
+      <c r="B123" s="638"/>
+      <c r="C123" s="638"/>
+      <c r="D123" s="638"/>
+      <c r="E123" s="638"/>
+      <c r="F123" s="638"/>
+      <c r="G123" s="638"/>
+      <c r="H123" s="638"/>
+      <c r="I123" s="638"/>
+      <c r="J123" s="638"/>
+      <c r="K123" s="638"/>
       <c r="L123" s="599"/>
       <c r="M123" s="23"/>
     </row>
@@ -30176,6 +30226,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M81:M93"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="M19:M28"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M48:M55"/>
     <mergeCell ref="A122:K122"/>
     <mergeCell ref="A123:K123"/>
     <mergeCell ref="G7:H7"/>
@@ -30185,13 +30242,6 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="L48:L55"/>
     <mergeCell ref="L81:L93"/>
-    <mergeCell ref="M81:M93"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M48:M55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.32" footer="0.25"/>
@@ -30210,7 +30260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06856D5A-01F7-4F06-822E-5143D8EE1FCB}">
   <dimension ref="F14:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -30223,108 +30273,108 @@
   </cols>
   <sheetData>
     <row r="14" spans="6:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="696" t="s">
+      <c r="F14" s="654" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="696"/>
-      <c r="H14" s="696"/>
-      <c r="I14" s="696"/>
+      <c r="G14" s="654"/>
+      <c r="H14" s="654"/>
+      <c r="I14" s="654"/>
     </row>
     <row r="15" spans="6:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="697" t="s">
+      <c r="F15" s="628" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="697" t="s">
+      <c r="G15" s="628" t="s">
         <v>356</v>
       </c>
-      <c r="H15" s="697" t="s">
+      <c r="H15" s="628" t="s">
         <v>357</v>
       </c>
-      <c r="I15" s="697" t="s">
+      <c r="I15" s="628" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="695" t="s">
+    <row r="16" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="627" t="s">
         <v>351</v>
       </c>
-      <c r="G16" s="695" t="s">
+      <c r="G16" s="627" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="695" t="s">
+      <c r="H16" s="627" t="s">
         <v>340</v>
       </c>
-      <c r="I16" s="698" t="s">
+      <c r="I16" s="629" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="695" t="s">
+    <row r="17" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="627" t="s">
         <v>352</v>
       </c>
-      <c r="G17" s="695" t="s">
+      <c r="G17" s="627" t="s">
         <v>350</v>
       </c>
-      <c r="H17" s="695" t="s">
+      <c r="H17" s="627" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="698" t="s">
+      <c r="I17" s="629" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="695" t="s">
+    <row r="18" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="627" t="s">
         <v>353</v>
       </c>
-      <c r="G18" s="695" t="s">
+      <c r="G18" s="627" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="698" t="s">
+      <c r="H18" s="629" t="s">
         <v>360</v>
       </c>
-      <c r="I18" s="698" t="s">
+      <c r="I18" s="629" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="698" t="s">
+    <row r="19" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="629" t="s">
         <v>365</v>
       </c>
-      <c r="G19" s="695" t="s">
+      <c r="G19" s="627" t="s">
         <v>319</v>
       </c>
-      <c r="H19" s="695" t="s">
+      <c r="H19" s="627" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="698" t="s">
+      <c r="I19" s="629" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="695" t="s">
+    <row r="20" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="627" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="695" t="s">
+      <c r="G20" s="627" t="s">
         <v>317</v>
       </c>
-      <c r="H20" s="695" t="s">
+      <c r="H20" s="627" t="s">
         <v>345</v>
       </c>
-      <c r="I20" s="698" t="s">
+      <c r="I20" s="629" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="6:9" s="694" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="698" t="s">
+    <row r="21" spans="6:9" s="626" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="629" t="s">
         <v>354</v>
       </c>
-      <c r="G21" s="695" t="s">
+      <c r="G21" s="627" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="695" t="s">
+      <c r="H21" s="627" t="s">
         <v>345</v>
       </c>
-      <c r="I21" s="698" t="s">
+      <c r="I21" s="629" t="s">
         <v>363</v>
       </c>
     </row>
@@ -30606,19 +30656,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="650" t="s">
+      <c r="A1" s="655" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="650"/>
+      <c r="B1" s="655"/>
       <c r="C1" s="317"/>
       <c r="D1" s="317"/>
       <c r="E1" s="318"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="651" t="s">
+      <c r="A2" s="656" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="651"/>
+      <c r="B2" s="656"/>
       <c r="C2" s="317"/>
       <c r="D2" s="317"/>
       <c r="E2" s="319"/>
@@ -30803,10 +30853,10 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="652" t="s">
+      <c r="A22" s="657" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="652"/>
+      <c r="B22" s="657"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -30820,12 +30870,12 @@
       <c r="A23" s="355" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="653" t="s">
+      <c r="B23" s="658" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="653"/>
-      <c r="D23" s="653"/>
-      <c r="E23" s="653"/>
+      <c r="C23" s="658"/>
+      <c r="D23" s="658"/>
+      <c r="E23" s="658"/>
       <c r="F23" s="356"/>
       <c r="G23" s="356"/>
       <c r="H23" s="356"/>
@@ -30851,12 +30901,12 @@
       <c r="A24" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="653" t="s">
+      <c r="B24" s="658" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="653"/>
-      <c r="D24" s="653"/>
-      <c r="E24" s="653"/>
+      <c r="C24" s="658"/>
+      <c r="D24" s="658"/>
+      <c r="E24" s="658"/>
       <c r="F24" s="356"/>
       <c r="G24" s="356"/>
       <c r="H24" s="356"/>
@@ -31543,11 +31593,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="650" t="s">
+      <c r="A1" s="655" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="650"/>
-      <c r="C1" s="650"/>
+      <c r="B1" s="655"/>
+      <c r="C1" s="655"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
@@ -31560,11 +31610,11 @@
       <c r="M1" s="150"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="651" t="s">
+      <c r="A2" s="656" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="651"/>
-      <c r="C2" s="651"/>
+      <c r="B2" s="656"/>
+      <c r="C2" s="656"/>
       <c r="D2" s="148"/>
       <c r="E2" s="148"/>
       <c r="F2" s="148"/>
@@ -31634,30 +31684,30 @@
       <c r="M6" s="150"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="669" t="s">
+      <c r="A7" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="670"/>
-      <c r="C7" s="673" t="s">
+      <c r="B7" s="673"/>
+      <c r="C7" s="664" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="673" t="s">
+      <c r="D7" s="664" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="664" t="s">
+      <c r="E7" s="666" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="664" t="s">
+      <c r="F7" s="666" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="666" t="s">
+      <c r="G7" s="659" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="666"/>
-      <c r="I7" s="666" t="s">
+      <c r="H7" s="659"/>
+      <c r="I7" s="659" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="666"/>
+      <c r="J7" s="659"/>
       <c r="K7" s="156" t="s">
         <v>109</v>
       </c>
@@ -31669,12 +31719,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="671"/>
-      <c r="B8" s="672"/>
-      <c r="C8" s="674"/>
-      <c r="D8" s="674"/>
-      <c r="E8" s="665"/>
-      <c r="F8" s="665"/>
+      <c r="A8" s="674"/>
+      <c r="B8" s="675"/>
+      <c r="C8" s="665"/>
+      <c r="D8" s="665"/>
+      <c r="E8" s="667"/>
+      <c r="F8" s="667"/>
       <c r="G8" s="157" t="s">
         <v>110</v>
       </c>
@@ -31694,8 +31744,8 @@
       <c r="M8" s="661"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="667"/>
-      <c r="B9" s="668"/>
+      <c r="A9" s="670"/>
+      <c r="B9" s="671"/>
       <c r="C9" s="160" t="s">
         <v>113</v>
       </c>
@@ -32657,10 +32707,10 @@
         <f t="shared" ref="K40:K43" si="8">J40+H40</f>
         <v>35000</v>
       </c>
-      <c r="L40" s="675" t="s">
+      <c r="L40" s="662" t="s">
         <v>341</v>
       </c>
-      <c r="M40" s="654" t="s">
+      <c r="M40" s="676" t="s">
         <v>318</v>
       </c>
     </row>
@@ -32697,8 +32747,8 @@
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="L41" s="675"/>
-      <c r="M41" s="654"/>
+      <c r="L41" s="662"/>
+      <c r="M41" s="676"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69"/>
@@ -32733,8 +32783,8 @@
         <f t="shared" si="8"/>
         <v>18240</v>
       </c>
-      <c r="L42" s="675"/>
-      <c r="M42" s="654"/>
+      <c r="L42" s="662"/>
+      <c r="M42" s="676"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
@@ -32769,8 +32819,8 @@
         <f t="shared" si="8"/>
         <v>10200</v>
       </c>
-      <c r="L43" s="675"/>
-      <c r="M43" s="654"/>
+      <c r="L43" s="662"/>
+      <c r="M43" s="676"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="69">
@@ -32789,8 +32839,8 @@
       <c r="I44" s="428"/>
       <c r="J44" s="554"/>
       <c r="K44" s="557"/>
-      <c r="L44" s="675"/>
-      <c r="M44" s="654"/>
+      <c r="L44" s="662"/>
+      <c r="M44" s="676"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="203"/>
@@ -32825,8 +32875,8 @@
         <f t="shared" ref="K45:K48" si="11">J45+H45</f>
         <v>147500</v>
       </c>
-      <c r="L45" s="675"/>
-      <c r="M45" s="654"/>
+      <c r="L45" s="662"/>
+      <c r="M45" s="676"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="203"/>
@@ -32861,8 +32911,8 @@
         <f t="shared" si="11"/>
         <v>111000</v>
       </c>
-      <c r="L46" s="675"/>
-      <c r="M46" s="654"/>
+      <c r="L46" s="662"/>
+      <c r="M46" s="676"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="203"/>
@@ -32897,8 +32947,8 @@
         <f t="shared" si="11"/>
         <v>36800</v>
       </c>
-      <c r="L47" s="675"/>
-      <c r="M47" s="654"/>
+      <c r="L47" s="662"/>
+      <c r="M47" s="676"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="203"/>
@@ -32933,8 +32983,8 @@
         <f t="shared" si="11"/>
         <v>11400</v>
       </c>
-      <c r="L48" s="676"/>
-      <c r="M48" s="655"/>
+      <c r="L48" s="663"/>
+      <c r="M48" s="677"/>
     </row>
     <row r="49" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="69">
@@ -32989,7 +33039,7 @@
         <f>J50+H50</f>
         <v>30000</v>
       </c>
-      <c r="L50" s="656" t="s">
+      <c r="L50" s="678" t="s">
         <v>338</v>
       </c>
       <c r="M50" s="237"/>
@@ -33027,7 +33077,7 @@
         <f t="shared" ref="K51:K53" si="14">J51+H51</f>
         <v>22200</v>
       </c>
-      <c r="L51" s="656"/>
+      <c r="L51" s="678"/>
       <c r="M51" s="237"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33063,7 +33113,7 @@
         <f t="shared" si="14"/>
         <v>6760</v>
       </c>
-      <c r="L52" s="656"/>
+      <c r="L52" s="678"/>
       <c r="M52" s="237"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33099,7 +33149,7 @@
         <f t="shared" si="14"/>
         <v>3560</v>
       </c>
-      <c r="L53" s="657"/>
+      <c r="L53" s="679"/>
       <c r="M53" s="237"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33381,10 +33431,10 @@
         <f t="shared" ref="K64:K66" si="17">J64+H64</f>
         <v>20000</v>
       </c>
-      <c r="L64" s="654" t="s">
+      <c r="L64" s="676" t="s">
         <v>329</v>
       </c>
-      <c r="M64" s="658"/>
+      <c r="M64" s="680"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="69"/>
@@ -33419,8 +33469,8 @@
         <f t="shared" si="17"/>
         <v>52500</v>
       </c>
-      <c r="L65" s="654"/>
-      <c r="M65" s="658"/>
+      <c r="L65" s="676"/>
+      <c r="M65" s="680"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="69"/>
@@ -33455,8 +33505,8 @@
         <f t="shared" si="17"/>
         <v>69000</v>
       </c>
-      <c r="L66" s="655"/>
-      <c r="M66" s="659"/>
+      <c r="L66" s="677"/>
+      <c r="M66" s="681"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="69">
@@ -33927,8 +33977,8 @@
       <c r="M82" s="412"/>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="662"/>
-      <c r="B83" s="663"/>
+      <c r="A83" s="668"/>
+      <c r="B83" s="669"/>
       <c r="C83" s="442" t="s">
         <v>130</v>
       </c>
@@ -33980,11 +34030,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L40:L48"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M40:M48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
@@ -33993,11 +34043,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="M40:M48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L40:L48"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.23"/>
@@ -34341,10 +34391,10 @@
       <c r="F6" s="389"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="679" t="s">
+      <c r="A7" s="685" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="680"/>
+      <c r="B7" s="686"/>
       <c r="C7" s="476" t="s">
         <v>105</v>
       </c>
@@ -34367,8 +34417,8 @@
       <c r="F8" s="481"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="667"/>
-      <c r="B9" s="668"/>
+      <c r="A9" s="670"/>
+      <c r="B9" s="671"/>
       <c r="C9" s="482" t="s">
         <v>303</v>
       </c>
@@ -34377,10 +34427,10 @@
       <c r="F9" s="481"/>
     </row>
     <row r="10" spans="1:6" s="241" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="677">
+      <c r="A10" s="682">
         <v>1</v>
       </c>
-      <c r="B10" s="678"/>
+      <c r="B10" s="683"/>
       <c r="C10" s="483" t="s">
         <v>304</v>
       </c>
@@ -34389,11 +34439,11 @@
       <c r="F10" s="485"/>
     </row>
     <row r="11" spans="1:6" s="241" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="677">
+      <c r="A11" s="682">
         <f t="shared" ref="A11:A17" si="0">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="678"/>
+      <c r="B11" s="683"/>
       <c r="C11" s="486" t="s">
         <v>305</v>
       </c>
@@ -34402,11 +34452,11 @@
       <c r="F11" s="485"/>
     </row>
     <row r="12" spans="1:6" s="241" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="677">
+      <c r="A12" s="682">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="678"/>
+      <c r="B12" s="683"/>
       <c r="C12" s="486" t="s">
         <v>180</v>
       </c>
@@ -34415,11 +34465,11 @@
       <c r="F12" s="485"/>
     </row>
     <row r="13" spans="1:6" s="241" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="677">
+      <c r="A13" s="682">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="678"/>
+      <c r="B13" s="683"/>
       <c r="C13" s="483" t="s">
         <v>306</v>
       </c>
@@ -34428,11 +34478,11 @@
       <c r="F13" s="487"/>
     </row>
     <row r="14" spans="1:6" s="241" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="677">
+      <c r="A14" s="682">
         <f>A13+1</f>
         <v>5</v>
       </c>
-      <c r="B14" s="678"/>
+      <c r="B14" s="683"/>
       <c r="C14" s="483" t="s">
         <v>307</v>
       </c>
@@ -34441,11 +34491,11 @@
       <c r="F14" s="485"/>
     </row>
     <row r="15" spans="1:6" s="241" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="677">
+      <c r="A15" s="682">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="678"/>
+      <c r="B15" s="683"/>
       <c r="C15" s="486" t="s">
         <v>308</v>
       </c>
@@ -34454,11 +34504,11 @@
       <c r="F15" s="485"/>
     </row>
     <row r="16" spans="1:6" s="241" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="677">
+      <c r="A16" s="682">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="678"/>
+      <c r="B16" s="683"/>
       <c r="C16" s="486" t="s">
         <v>309</v>
       </c>
@@ -34467,11 +34517,11 @@
       <c r="F16" s="485"/>
     </row>
     <row r="17" spans="1:25" s="241" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="677">
+      <c r="A17" s="682">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="678"/>
+      <c r="B17" s="683"/>
       <c r="C17" s="488" t="s">
         <v>310</v>
       </c>
@@ -34498,10 +34548,10 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="681" t="s">
+      <c r="A20" s="684" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="681"/>
+      <c r="B20" s="684"/>
       <c r="C20" s="4"/>
       <c r="D20" s="229"/>
       <c r="E20" s="229"/>
@@ -34515,17 +34565,17 @@
       <c r="A21" s="490" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="640" t="s">
+      <c r="B21" s="637" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="640"/>
-      <c r="D21" s="640"/>
-      <c r="E21" s="640"/>
-      <c r="F21" s="640"/>
-      <c r="G21" s="640"/>
-      <c r="H21" s="640"/>
-      <c r="I21" s="640"/>
-      <c r="J21" s="640"/>
+      <c r="C21" s="637"/>
+      <c r="D21" s="637"/>
+      <c r="E21" s="637"/>
+      <c r="F21" s="637"/>
+      <c r="G21" s="637"/>
+      <c r="H21" s="637"/>
+      <c r="I21" s="637"/>
+      <c r="J21" s="637"/>
       <c r="K21" s="357"/>
       <c r="L21" s="357"/>
       <c r="M21" s="357"/>
@@ -34546,17 +34596,17 @@
       <c r="A22" s="490" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="640" t="s">
+      <c r="B22" s="637" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="640"/>
-      <c r="D22" s="640"/>
-      <c r="E22" s="640"/>
-      <c r="F22" s="640"/>
-      <c r="G22" s="640"/>
-      <c r="H22" s="640"/>
-      <c r="I22" s="640"/>
-      <c r="J22" s="640"/>
+      <c r="C22" s="637"/>
+      <c r="D22" s="637"/>
+      <c r="E22" s="637"/>
+      <c r="F22" s="637"/>
+      <c r="G22" s="637"/>
+      <c r="H22" s="637"/>
+      <c r="I22" s="637"/>
+      <c r="J22" s="637"/>
       <c r="K22" s="357"/>
       <c r="L22" s="357"/>
       <c r="M22" s="357"/>
@@ -34575,6 +34625,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
@@ -34582,12 +34638,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>
@@ -35412,39 +35462,39 @@
       <c r="D6" s="282"/>
       <c r="E6" s="281"/>
       <c r="F6" s="281"/>
-      <c r="G6" s="684"/>
-      <c r="H6" s="684"/>
-      <c r="I6" s="684"/>
-      <c r="J6" s="684"/>
-      <c r="K6" s="684"/>
+      <c r="G6" s="687"/>
+      <c r="H6" s="687"/>
+      <c r="I6" s="687"/>
+      <c r="J6" s="687"/>
+      <c r="K6" s="687"/>
       <c r="L6" s="23"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="669" t="s">
+      <c r="A7" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="670"/>
-      <c r="C7" s="673" t="s">
+      <c r="B7" s="673"/>
+      <c r="C7" s="664" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="673" t="s">
+      <c r="D7" s="664" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="685" t="s">
+      <c r="E7" s="688" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="685" t="s">
+      <c r="F7" s="688" t="s">
         <v>314</v>
       </c>
-      <c r="G7" s="687" t="s">
+      <c r="G7" s="690" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="688"/>
-      <c r="I7" s="687" t="s">
+      <c r="H7" s="691"/>
+      <c r="I7" s="690" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="689"/>
+      <c r="J7" s="692"/>
       <c r="K7" s="280" t="s">
         <v>109</v>
       </c>
@@ -35456,12 +35506,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="278" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="671"/>
-      <c r="B8" s="672"/>
-      <c r="C8" s="674"/>
-      <c r="D8" s="674"/>
-      <c r="E8" s="686"/>
-      <c r="F8" s="686"/>
+      <c r="A8" s="674"/>
+      <c r="B8" s="675"/>
+      <c r="C8" s="665"/>
+      <c r="D8" s="665"/>
+      <c r="E8" s="689"/>
+      <c r="F8" s="689"/>
       <c r="G8" s="158" t="s">
         <v>110</v>
       </c>
@@ -35481,8 +35531,8 @@
       <c r="M8" s="661"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="682"/>
-      <c r="B9" s="683"/>
+      <c r="A9" s="693"/>
+      <c r="B9" s="694"/>
       <c r="C9" s="277" t="s">
         <v>196</v>
       </c>
@@ -35566,10 +35616,10 @@
         <f>J12+H12</f>
         <v>1548720</v>
       </c>
-      <c r="L12" s="656" t="s">
+      <c r="L12" s="678" t="s">
         <v>324</v>
       </c>
-      <c r="M12" s="656" t="s">
+      <c r="M12" s="678" t="s">
         <v>320</v>
       </c>
       <c r="N12" s="586"/>
@@ -35608,8 +35658,8 @@
         <f t="shared" ref="K13:K31" si="2">J13+H13</f>
         <v>159840</v>
       </c>
-      <c r="L13" s="656"/>
-      <c r="M13" s="656"/>
+      <c r="L13" s="678"/>
+      <c r="M13" s="678"/>
       <c r="N13" s="586"/>
     </row>
     <row r="14" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35645,8 +35695,8 @@
         <f t="shared" si="2"/>
         <v>276660</v>
       </c>
-      <c r="L14" s="656"/>
-      <c r="M14" s="656"/>
+      <c r="L14" s="678"/>
+      <c r="M14" s="678"/>
       <c r="N14" s="586"/>
     </row>
     <row r="15" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35682,8 +35732,8 @@
         <f t="shared" si="2"/>
         <v>322521</v>
       </c>
-      <c r="L15" s="656"/>
-      <c r="M15" s="656"/>
+      <c r="L15" s="678"/>
+      <c r="M15" s="678"/>
       <c r="N15" s="586"/>
     </row>
     <row r="16" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35719,8 +35769,8 @@
         <f t="shared" si="2"/>
         <v>762075</v>
       </c>
-      <c r="L16" s="656"/>
-      <c r="M16" s="656"/>
+      <c r="L16" s="678"/>
+      <c r="M16" s="678"/>
       <c r="N16" s="586"/>
     </row>
     <row r="17" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35756,8 +35806,8 @@
         <f t="shared" si="2"/>
         <v>298650</v>
       </c>
-      <c r="L17" s="656"/>
-      <c r="M17" s="656"/>
+      <c r="L17" s="678"/>
+      <c r="M17" s="678"/>
       <c r="N17" s="586"/>
     </row>
     <row r="18" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35793,8 +35843,8 @@
         <f t="shared" si="2"/>
         <v>133450</v>
       </c>
-      <c r="L18" s="657"/>
-      <c r="M18" s="657"/>
+      <c r="L18" s="679"/>
+      <c r="M18" s="679"/>
       <c r="N18" s="586"/>
     </row>
     <row r="19" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36306,6 +36356,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -36314,11 +36369,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>
@@ -37137,36 +37187,36 @@
       <c r="C6" s="283"/>
       <c r="D6" s="282"/>
       <c r="E6" s="281"/>
-      <c r="F6" s="684"/>
-      <c r="G6" s="684"/>
-      <c r="H6" s="684"/>
-      <c r="I6" s="684"/>
-      <c r="J6" s="684"/>
+      <c r="F6" s="687"/>
+      <c r="G6" s="687"/>
+      <c r="H6" s="687"/>
+      <c r="I6" s="687"/>
+      <c r="J6" s="687"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="669" t="s">
+      <c r="A7" s="672" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="670"/>
-      <c r="C7" s="673" t="s">
+      <c r="B7" s="673"/>
+      <c r="C7" s="664" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="673" t="s">
+      <c r="D7" s="664" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="685" t="s">
+      <c r="E7" s="688" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="687" t="s">
+      <c r="F7" s="690" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="688"/>
-      <c r="H7" s="687" t="s">
+      <c r="G7" s="691"/>
+      <c r="H7" s="690" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="689"/>
+      <c r="I7" s="692"/>
       <c r="J7" s="280" t="s">
         <v>109</v>
       </c>
@@ -37178,11 +37228,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="278" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="671"/>
-      <c r="B8" s="672"/>
-      <c r="C8" s="674"/>
-      <c r="D8" s="674"/>
-      <c r="E8" s="686"/>
+      <c r="A8" s="674"/>
+      <c r="B8" s="675"/>
+      <c r="C8" s="665"/>
+      <c r="D8" s="665"/>
+      <c r="E8" s="689"/>
       <c r="F8" s="158" t="s">
         <v>110</v>
       </c>
@@ -37202,8 +37252,8 @@
       <c r="L8" s="661"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="692"/>
-      <c r="B9" s="693"/>
+      <c r="A9" s="697"/>
+      <c r="B9" s="698"/>
       <c r="C9" s="291" t="s">
         <v>198</v>
       </c>
@@ -37283,7 +37333,7 @@
         <f>I12+G12</f>
         <v>2870400</v>
       </c>
-      <c r="K12" s="690" t="s">
+      <c r="K12" s="695" t="s">
         <v>346</v>
       </c>
       <c r="L12" s="603"/>
@@ -37320,7 +37370,7 @@
         <f>I13+G13</f>
         <v>360000</v>
       </c>
-      <c r="K13" s="691"/>
+      <c r="K13" s="696"/>
       <c r="L13" s="623" t="s">
         <v>347</v>
       </c>
@@ -38212,6 +38262,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2a2a445e-c453-4f04-9b2f-8a0068eac90e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db23c72c-e112-43fc-8a02-148203d9c31c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Time xmlns="db23c72c-e112-43fc-8a02-148203d9c31c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368BEF076A962A43B6F9D3AD7FB3FB6F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcb0f6516c6be7fd66a54e395076b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db23c72c-e112-43fc-8a02-148203d9c31c" xmlns:ns3="2a2a445e-c453-4f04-9b2f-8a0068eac90e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4bdf9d59a7f4f0d91d44646cabeafbf" ns2:_="" ns3:_="">
     <xsd:import namespace="db23c72c-e112-43fc-8a02-148203d9c31c"/>
@@ -38472,42 +38543,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2a2a445e-c453-4f04-9b2f-8a0068eac90e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db23c72c-e112-43fc-8a02-148203d9c31c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Time xmlns="db23c72c-e112-43fc-8a02-148203d9c31c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1D120-88D7-40A1-B049-705DFBF44AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="db23c72c-e112-43fc-8a02-148203d9c31c"/>
-    <ds:schemaRef ds:uri="2a2a445e-c453-4f04-9b2f-8a0068eac90e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38530,9 +38569,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1D120-88D7-40A1-B049-705DFBF44AE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="db23c72c-e112-43fc-8a02-148203d9c31c"/>
+    <ds:schemaRef ds:uri="2a2a445e-c453-4f04-9b2f-8a0068eac90e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - revised on 5 Mar 24.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/Citibank Karachi - BOM - revised on 5 Mar 24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6348C1-ECA7-4D62-9F20-7E4107B2B615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82CB0A-0EC4-49EA-95AE-E01593877818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4794,9 +4794,36 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="88" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4809,18 +4836,6 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4830,21 +4845,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="88" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4860,14 +4860,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4875,73 +4929,25 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="84" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4961,12 +4967,6 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="83" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -24713,7 +24713,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -24887,10 +24887,7 @@
       <c r="C15" s="375" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="370">
-        <f>'Clean Agent FSS (Comms Room)'!J42</f>
-        <v>4234900</v>
-      </c>
+      <c r="D15" s="370"/>
       <c r="E15" s="371"/>
       <c r="F15" s="371"/>
       <c r="G15" s="371"/>
@@ -24916,7 +24913,7 @@
       </c>
       <c r="D17" s="378">
         <f>SUM(D12:D15)</f>
-        <v>51479360.5</v>
+        <v>47244460.5</v>
       </c>
       <c r="E17" s="379"/>
       <c r="F17" s="379"/>
@@ -25157,29 +25154,29 @@
       <c r="D7" s="9"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
-      <c r="G7" s="639" t="s">
+      <c r="G7" s="648" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="640"/>
-      <c r="I7" s="641" t="s">
+      <c r="H7" s="649"/>
+      <c r="I7" s="650" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="641"/>
+      <c r="J7" s="650"/>
       <c r="K7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="642" t="s">
+      <c r="L7" s="640" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="642" t="s">
+      <c r="M7" s="640" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="652" t="s">
+      <c r="A8" s="642" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="653"/>
+      <c r="B8" s="643"/>
       <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
@@ -25207,8 +25204,8 @@
       <c r="K8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="643"/>
-      <c r="M8" s="643"/>
+      <c r="L8" s="641"/>
+      <c r="M8" s="641"/>
     </row>
     <row r="9" spans="1:16" s="10" customFormat="1" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
@@ -25548,10 +25545,10 @@
         <f>J19+H19</f>
         <v>493776</v>
       </c>
-      <c r="L19" s="644" t="s">
+      <c r="L19" s="645" t="s">
         <v>317</v>
       </c>
-      <c r="M19" s="644" t="s">
+      <c r="M19" s="645" t="s">
         <v>333</v>
       </c>
     </row>
@@ -25588,8 +25585,8 @@
         <f>J20+H20</f>
         <v>2468880</v>
       </c>
-      <c r="L20" s="644"/>
-      <c r="M20" s="644"/>
+      <c r="L20" s="645"/>
+      <c r="M20" s="645"/>
     </row>
     <row r="21" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
@@ -25624,8 +25621,8 @@
         <f>J21+H21</f>
         <v>493776</v>
       </c>
-      <c r="L21" s="644"/>
-      <c r="M21" s="644"/>
+      <c r="L21" s="645"/>
+      <c r="M21" s="645"/>
     </row>
     <row r="22" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
@@ -25660,8 +25657,8 @@
         <f>J22+H22</f>
         <v>499510</v>
       </c>
-      <c r="L22" s="644"/>
-      <c r="M22" s="644"/>
+      <c r="L22" s="645"/>
+      <c r="M22" s="645"/>
     </row>
     <row r="23" spans="1:16" s="7" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
@@ -25696,8 +25693,8 @@
         <f>J23+H23</f>
         <v>499510</v>
       </c>
-      <c r="L23" s="644"/>
-      <c r="M23" s="644"/>
+      <c r="L23" s="645"/>
+      <c r="M23" s="645"/>
     </row>
     <row r="24" spans="1:16" s="108" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="128"/>
@@ -25718,8 +25715,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="135"/>
-      <c r="L24" s="644"/>
-      <c r="M24" s="644"/>
+      <c r="L24" s="645"/>
+      <c r="M24" s="645"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
@@ -25754,8 +25751,8 @@
         <f>J25+H25</f>
         <v>173000</v>
       </c>
-      <c r="L25" s="644"/>
-      <c r="M25" s="644"/>
+      <c r="L25" s="645"/>
+      <c r="M25" s="645"/>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
@@ -25790,8 +25787,8 @@
         <f>J26+H26</f>
         <v>1038000</v>
       </c>
-      <c r="L26" s="644"/>
-      <c r="M26" s="644"/>
+      <c r="L26" s="645"/>
+      <c r="M26" s="645"/>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
@@ -25826,8 +25823,8 @@
         <f>J27+H27</f>
         <v>1730000</v>
       </c>
-      <c r="L27" s="644"/>
-      <c r="M27" s="644"/>
+      <c r="L27" s="645"/>
+      <c r="M27" s="645"/>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
@@ -25862,8 +25859,8 @@
         <f>J28+H28</f>
         <v>1211000</v>
       </c>
-      <c r="L28" s="645"/>
-      <c r="M28" s="645"/>
+      <c r="L28" s="646"/>
+      <c r="M28" s="646"/>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="300">
@@ -25913,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="644" t="s">
+      <c r="L30" s="645" t="s">
         <v>318</v>
       </c>
-      <c r="M30" s="644" t="s">
+      <c r="M30" s="645" t="s">
         <v>321</v>
       </c>
     </row>
@@ -25943,8 +25940,8 @@
         <v>0</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="644"/>
-      <c r="M31" s="644"/>
+      <c r="L31" s="645"/>
+      <c r="M31" s="645"/>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
@@ -25981,8 +25978,8 @@
         <f>J32+H32</f>
         <v>111000</v>
       </c>
-      <c r="L32" s="644"/>
-      <c r="M32" s="644"/>
+      <c r="L32" s="645"/>
+      <c r="M32" s="645"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
@@ -26007,8 +26004,8 @@
         <v>0</v>
       </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="644"/>
-      <c r="M33" s="644"/>
+      <c r="L33" s="645"/>
+      <c r="M33" s="645"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
@@ -26046,8 +26043,8 @@
         <f>J34+H34</f>
         <v>27750</v>
       </c>
-      <c r="L34" s="644"/>
-      <c r="M34" s="644"/>
+      <c r="L34" s="645"/>
+      <c r="M34" s="645"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
@@ -26072,8 +26069,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="30"/>
-      <c r="L35" s="644"/>
-      <c r="M35" s="644"/>
+      <c r="L35" s="645"/>
+      <c r="M35" s="645"/>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
@@ -26111,8 +26108,8 @@
         <f>J36+H36</f>
         <v>61500</v>
       </c>
-      <c r="L36" s="645"/>
-      <c r="M36" s="645"/>
+      <c r="L36" s="646"/>
+      <c r="M36" s="646"/>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="504"/>
@@ -26531,10 +26528,10 @@
         <f>J48+H48</f>
         <v>37000</v>
       </c>
-      <c r="L48" s="644" t="s">
+      <c r="L48" s="645" t="s">
         <v>318</v>
       </c>
-      <c r="M48" s="644" t="s">
+      <c r="M48" s="645" t="s">
         <v>321</v>
       </c>
     </row>
@@ -26573,8 +26570,8 @@
         <f>J49+H49</f>
         <v>100000</v>
       </c>
-      <c r="L49" s="644"/>
-      <c r="M49" s="644"/>
+      <c r="L49" s="645"/>
+      <c r="M49" s="645"/>
     </row>
     <row r="50" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="128"/>
@@ -26599,8 +26596,8 @@
         <v>0</v>
       </c>
       <c r="K50" s="135"/>
-      <c r="L50" s="644"/>
-      <c r="M50" s="644"/>
+      <c r="L50" s="645"/>
+      <c r="M50" s="645"/>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
@@ -26638,8 +26635,8 @@
         <f>J51+H51</f>
         <v>8500</v>
       </c>
-      <c r="L51" s="644"/>
-      <c r="M51" s="644"/>
+      <c r="L51" s="645"/>
+      <c r="M51" s="645"/>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
@@ -26677,8 +26674,8 @@
         <f>J52+H52</f>
         <v>21600</v>
       </c>
-      <c r="L52" s="644"/>
-      <c r="M52" s="644"/>
+      <c r="L52" s="645"/>
+      <c r="M52" s="645"/>
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
@@ -26703,8 +26700,8 @@
         <v>0</v>
       </c>
       <c r="K53" s="32"/>
-      <c r="L53" s="644"/>
-      <c r="M53" s="644"/>
+      <c r="L53" s="645"/>
+      <c r="M53" s="645"/>
     </row>
     <row r="54" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41"/>
@@ -26742,8 +26739,8 @@
         <f>J54+H54</f>
         <v>19500</v>
       </c>
-      <c r="L54" s="644"/>
-      <c r="M54" s="644"/>
+      <c r="L54" s="645"/>
+      <c r="M54" s="645"/>
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
@@ -26781,8 +26778,8 @@
         <f>J55+H55</f>
         <v>46000</v>
       </c>
-      <c r="L55" s="645"/>
-      <c r="M55" s="645"/>
+      <c r="L55" s="646"/>
+      <c r="M55" s="646"/>
     </row>
     <row r="56" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
@@ -27722,10 +27719,10 @@
         <f>J81+H81</f>
         <v>378000</v>
       </c>
-      <c r="L81" s="646" t="s">
+      <c r="L81" s="651" t="s">
         <v>319</v>
       </c>
-      <c r="M81" s="649" t="s">
+      <c r="M81" s="637" t="s">
         <v>328</v>
       </c>
     </row>
@@ -27752,8 +27749,8 @@
         <v>0</v>
       </c>
       <c r="K82" s="619"/>
-      <c r="L82" s="647"/>
-      <c r="M82" s="650"/>
+      <c r="L82" s="652"/>
+      <c r="M82" s="638"/>
     </row>
     <row r="83" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
@@ -27788,8 +27785,8 @@
         <f t="shared" ref="K83:K88" si="4">J83+H83</f>
         <v>26000</v>
       </c>
-      <c r="L83" s="647"/>
-      <c r="M83" s="650"/>
+      <c r="L83" s="652"/>
+      <c r="M83" s="638"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
@@ -27824,8 +27821,8 @@
         <f t="shared" si="4"/>
         <v>52500</v>
       </c>
-      <c r="L84" s="647"/>
-      <c r="M84" s="650"/>
+      <c r="L84" s="652"/>
+      <c r="M84" s="638"/>
     </row>
     <row r="85" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
@@ -27860,8 +27857,8 @@
         <f t="shared" si="4"/>
         <v>132000</v>
       </c>
-      <c r="L85" s="647"/>
-      <c r="M85" s="650"/>
+      <c r="L85" s="652"/>
+      <c r="M85" s="638"/>
     </row>
     <row r="86" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
@@ -27897,8 +27894,8 @@
         <f t="shared" si="4"/>
         <v>204000</v>
       </c>
-      <c r="L86" s="647"/>
-      <c r="M86" s="650"/>
+      <c r="L86" s="652"/>
+      <c r="M86" s="638"/>
     </row>
     <row r="87" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="41"/>
@@ -27934,8 +27931,8 @@
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="L87" s="647"/>
-      <c r="M87" s="650"/>
+      <c r="L87" s="652"/>
+      <c r="M87" s="638"/>
     </row>
     <row r="88" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
@@ -27971,8 +27968,8 @@
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L88" s="647"/>
-      <c r="M88" s="650"/>
+      <c r="L88" s="652"/>
+      <c r="M88" s="638"/>
     </row>
     <row r="89" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
@@ -27997,8 +27994,8 @@
         <v>0</v>
       </c>
       <c r="K89" s="619"/>
-      <c r="L89" s="647"/>
-      <c r="M89" s="650"/>
+      <c r="L89" s="652"/>
+      <c r="M89" s="638"/>
     </row>
     <row r="90" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="41"/>
@@ -28033,8 +28030,8 @@
         <f>J90+H90</f>
         <v>202500</v>
       </c>
-      <c r="L90" s="647"/>
-      <c r="M90" s="650"/>
+      <c r="L90" s="652"/>
+      <c r="M90" s="638"/>
     </row>
     <row r="91" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="41"/>
@@ -28069,8 +28066,8 @@
         <f>J91+H91</f>
         <v>78750</v>
       </c>
-      <c r="L91" s="647"/>
-      <c r="M91" s="650"/>
+      <c r="L91" s="652"/>
+      <c r="M91" s="638"/>
     </row>
     <row r="92" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="41"/>
@@ -28095,8 +28092,8 @@
         <v>0</v>
       </c>
       <c r="K92" s="619"/>
-      <c r="L92" s="647"/>
-      <c r="M92" s="650"/>
+      <c r="L92" s="652"/>
+      <c r="M92" s="638"/>
     </row>
     <row r="93" spans="1:13" s="7" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="96"/>
@@ -28131,8 +28128,8 @@
         <f>J93+H93</f>
         <v>75000</v>
       </c>
-      <c r="L93" s="648"/>
-      <c r="M93" s="651"/>
+      <c r="L93" s="653"/>
+      <c r="M93" s="639"/>
     </row>
     <row r="94" spans="1:13" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="517">
@@ -29096,51 +29093,51 @@
       <c r="M120" s="37"/>
     </row>
     <row r="121" spans="1:13" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="637" t="s">
+      <c r="A121" s="644" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="637"/>
-      <c r="C121" s="637"/>
-      <c r="D121" s="637"/>
-      <c r="E121" s="637"/>
-      <c r="F121" s="637"/>
-      <c r="G121" s="637"/>
-      <c r="H121" s="637"/>
-      <c r="I121" s="637"/>
-      <c r="J121" s="637"/>
-      <c r="K121" s="637"/>
+      <c r="B121" s="644"/>
+      <c r="C121" s="644"/>
+      <c r="D121" s="644"/>
+      <c r="E121" s="644"/>
+      <c r="F121" s="644"/>
+      <c r="G121" s="644"/>
+      <c r="H121" s="644"/>
+      <c r="I121" s="644"/>
+      <c r="J121" s="644"/>
+      <c r="K121" s="644"/>
       <c r="L121" s="598"/>
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="1:13" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="637" t="s">
+      <c r="A122" s="644" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="637"/>
-      <c r="C122" s="637"/>
-      <c r="D122" s="637"/>
-      <c r="E122" s="637"/>
-      <c r="F122" s="637"/>
-      <c r="G122" s="637"/>
-      <c r="H122" s="637"/>
-      <c r="I122" s="637"/>
-      <c r="J122" s="637"/>
-      <c r="K122" s="637"/>
+      <c r="B122" s="644"/>
+      <c r="C122" s="644"/>
+      <c r="D122" s="644"/>
+      <c r="E122" s="644"/>
+      <c r="F122" s="644"/>
+      <c r="G122" s="644"/>
+      <c r="H122" s="644"/>
+      <c r="I122" s="644"/>
+      <c r="J122" s="644"/>
+      <c r="K122" s="644"/>
       <c r="L122" s="599"/>
       <c r="M122" s="23"/>
     </row>
     <row r="123" spans="1:13" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="638"/>
-      <c r="B123" s="638"/>
-      <c r="C123" s="638"/>
-      <c r="D123" s="638"/>
-      <c r="E123" s="638"/>
-      <c r="F123" s="638"/>
-      <c r="G123" s="638"/>
-      <c r="H123" s="638"/>
-      <c r="I123" s="638"/>
-      <c r="J123" s="638"/>
-      <c r="K123" s="638"/>
+      <c r="A123" s="647"/>
+      <c r="B123" s="647"/>
+      <c r="C123" s="647"/>
+      <c r="D123" s="647"/>
+      <c r="E123" s="647"/>
+      <c r="F123" s="647"/>
+      <c r="G123" s="647"/>
+      <c r="H123" s="647"/>
+      <c r="I123" s="647"/>
+      <c r="J123" s="647"/>
+      <c r="K123" s="647"/>
       <c r="L123" s="599"/>
       <c r="M123" s="23"/>
     </row>
@@ -30226,13 +30223,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M81:M93"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="M30:M36"/>
-    <mergeCell ref="M48:M55"/>
     <mergeCell ref="A122:K122"/>
     <mergeCell ref="A123:K123"/>
     <mergeCell ref="G7:H7"/>
@@ -30242,6 +30232,13 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="L48:L55"/>
     <mergeCell ref="L81:L93"/>
+    <mergeCell ref="M81:M93"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="M19:M28"/>
+    <mergeCell ref="M30:M36"/>
+    <mergeCell ref="M48:M55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.32" footer="0.25"/>
@@ -31684,47 +31681,47 @@
       <c r="M6" s="150"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="672" t="s">
+      <c r="A7" s="674" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="673"/>
-      <c r="C7" s="664" t="s">
+      <c r="B7" s="675"/>
+      <c r="C7" s="678" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="664" t="s">
+      <c r="D7" s="678" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="666" t="s">
+      <c r="E7" s="669" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="666" t="s">
+      <c r="F7" s="669" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="659" t="s">
+      <c r="G7" s="671" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="659"/>
-      <c r="I7" s="659" t="s">
+      <c r="H7" s="671"/>
+      <c r="I7" s="671" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="659"/>
+      <c r="J7" s="671"/>
       <c r="K7" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="660" t="s">
+      <c r="L7" s="665" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="660" t="s">
+      <c r="M7" s="665" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="674"/>
-      <c r="B8" s="675"/>
-      <c r="C8" s="665"/>
-      <c r="D8" s="665"/>
-      <c r="E8" s="667"/>
-      <c r="F8" s="667"/>
+      <c r="A8" s="676"/>
+      <c r="B8" s="677"/>
+      <c r="C8" s="679"/>
+      <c r="D8" s="679"/>
+      <c r="E8" s="670"/>
+      <c r="F8" s="670"/>
       <c r="G8" s="157" t="s">
         <v>110</v>
       </c>
@@ -31740,12 +31737,12 @@
       <c r="K8" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="661"/>
-      <c r="M8" s="661"/>
+      <c r="L8" s="666"/>
+      <c r="M8" s="666"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="670"/>
-      <c r="B9" s="671"/>
+      <c r="A9" s="672"/>
+      <c r="B9" s="673"/>
       <c r="C9" s="160" t="s">
         <v>113</v>
       </c>
@@ -32707,10 +32704,10 @@
         <f t="shared" ref="K40:K43" si="8">J40+H40</f>
         <v>35000</v>
       </c>
-      <c r="L40" s="662" t="s">
+      <c r="L40" s="680" t="s">
         <v>341</v>
       </c>
-      <c r="M40" s="676" t="s">
+      <c r="M40" s="659" t="s">
         <v>318</v>
       </c>
     </row>
@@ -32747,8 +32744,8 @@
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="L41" s="662"/>
-      <c r="M41" s="676"/>
+      <c r="L41" s="680"/>
+      <c r="M41" s="659"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69"/>
@@ -32783,8 +32780,8 @@
         <f t="shared" si="8"/>
         <v>18240</v>
       </c>
-      <c r="L42" s="662"/>
-      <c r="M42" s="676"/>
+      <c r="L42" s="680"/>
+      <c r="M42" s="659"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
@@ -32819,8 +32816,8 @@
         <f t="shared" si="8"/>
         <v>10200</v>
       </c>
-      <c r="L43" s="662"/>
-      <c r="M43" s="676"/>
+      <c r="L43" s="680"/>
+      <c r="M43" s="659"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="69">
@@ -32839,8 +32836,8 @@
       <c r="I44" s="428"/>
       <c r="J44" s="554"/>
       <c r="K44" s="557"/>
-      <c r="L44" s="662"/>
-      <c r="M44" s="676"/>
+      <c r="L44" s="680"/>
+      <c r="M44" s="659"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="203"/>
@@ -32875,8 +32872,8 @@
         <f t="shared" ref="K45:K48" si="11">J45+H45</f>
         <v>147500</v>
       </c>
-      <c r="L45" s="662"/>
-      <c r="M45" s="676"/>
+      <c r="L45" s="680"/>
+      <c r="M45" s="659"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="203"/>
@@ -32911,8 +32908,8 @@
         <f t="shared" si="11"/>
         <v>111000</v>
       </c>
-      <c r="L46" s="662"/>
-      <c r="M46" s="676"/>
+      <c r="L46" s="680"/>
+      <c r="M46" s="659"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="203"/>
@@ -32947,8 +32944,8 @@
         <f t="shared" si="11"/>
         <v>36800</v>
       </c>
-      <c r="L47" s="662"/>
-      <c r="M47" s="676"/>
+      <c r="L47" s="680"/>
+      <c r="M47" s="659"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="203"/>
@@ -32983,8 +32980,8 @@
         <f t="shared" si="11"/>
         <v>11400</v>
       </c>
-      <c r="L48" s="663"/>
-      <c r="M48" s="677"/>
+      <c r="L48" s="681"/>
+      <c r="M48" s="660"/>
     </row>
     <row r="49" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="69">
@@ -33039,7 +33036,7 @@
         <f>J50+H50</f>
         <v>30000</v>
       </c>
-      <c r="L50" s="678" t="s">
+      <c r="L50" s="661" t="s">
         <v>338</v>
       </c>
       <c r="M50" s="237"/>
@@ -33077,7 +33074,7 @@
         <f t="shared" ref="K51:K53" si="14">J51+H51</f>
         <v>22200</v>
       </c>
-      <c r="L51" s="678"/>
+      <c r="L51" s="661"/>
       <c r="M51" s="237"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33113,7 +33110,7 @@
         <f t="shared" si="14"/>
         <v>6760</v>
       </c>
-      <c r="L52" s="678"/>
+      <c r="L52" s="661"/>
       <c r="M52" s="237"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33149,7 +33146,7 @@
         <f t="shared" si="14"/>
         <v>3560</v>
       </c>
-      <c r="L53" s="679"/>
+      <c r="L53" s="662"/>
       <c r="M53" s="237"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33431,10 +33428,10 @@
         <f t="shared" ref="K64:K66" si="17">J64+H64</f>
         <v>20000</v>
       </c>
-      <c r="L64" s="676" t="s">
+      <c r="L64" s="659" t="s">
         <v>329</v>
       </c>
-      <c r="M64" s="680"/>
+      <c r="M64" s="663"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="69"/>
@@ -33469,8 +33466,8 @@
         <f t="shared" si="17"/>
         <v>52500</v>
       </c>
-      <c r="L65" s="676"/>
-      <c r="M65" s="680"/>
+      <c r="L65" s="659"/>
+      <c r="M65" s="663"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="69"/>
@@ -33505,8 +33502,8 @@
         <f t="shared" si="17"/>
         <v>69000</v>
       </c>
-      <c r="L66" s="677"/>
-      <c r="M66" s="681"/>
+      <c r="L66" s="660"/>
+      <c r="M66" s="664"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="69">
@@ -33977,8 +33974,8 @@
       <c r="M82" s="412"/>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="668"/>
-      <c r="B83" s="669"/>
+      <c r="A83" s="667"/>
+      <c r="B83" s="668"/>
       <c r="C83" s="442" t="s">
         <v>130</v>
       </c>
@@ -34030,11 +34027,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M40:M48"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L40:L48"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
@@ -34043,11 +34040,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L40:L48"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M40:M48"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.23"/>
@@ -34391,10 +34388,10 @@
       <c r="F6" s="389"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="685" t="s">
+      <c r="A7" s="684" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="686"/>
+      <c r="B7" s="685"/>
       <c r="C7" s="476" t="s">
         <v>105</v>
       </c>
@@ -34417,8 +34414,8 @@
       <c r="F8" s="481"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="670"/>
-      <c r="B9" s="671"/>
+      <c r="A9" s="672"/>
+      <c r="B9" s="673"/>
       <c r="C9" s="482" t="s">
         <v>303</v>
       </c>
@@ -34548,10 +34545,10 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="684" t="s">
+      <c r="A20" s="686" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="684"/>
+      <c r="B20" s="686"/>
       <c r="C20" s="4"/>
       <c r="D20" s="229"/>
       <c r="E20" s="229"/>
@@ -34565,17 +34562,17 @@
       <c r="A21" s="490" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="637" t="s">
+      <c r="B21" s="644" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="637"/>
-      <c r="D21" s="637"/>
-      <c r="E21" s="637"/>
-      <c r="F21" s="637"/>
-      <c r="G21" s="637"/>
-      <c r="H21" s="637"/>
-      <c r="I21" s="637"/>
-      <c r="J21" s="637"/>
+      <c r="C21" s="644"/>
+      <c r="D21" s="644"/>
+      <c r="E21" s="644"/>
+      <c r="F21" s="644"/>
+      <c r="G21" s="644"/>
+      <c r="H21" s="644"/>
+      <c r="I21" s="644"/>
+      <c r="J21" s="644"/>
       <c r="K21" s="357"/>
       <c r="L21" s="357"/>
       <c r="M21" s="357"/>
@@ -34596,17 +34593,17 @@
       <c r="A22" s="490" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="637" t="s">
+      <c r="B22" s="644" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="637"/>
-      <c r="D22" s="637"/>
-      <c r="E22" s="637"/>
-      <c r="F22" s="637"/>
-      <c r="G22" s="637"/>
-      <c r="H22" s="637"/>
-      <c r="I22" s="637"/>
-      <c r="J22" s="637"/>
+      <c r="C22" s="644"/>
+      <c r="D22" s="644"/>
+      <c r="E22" s="644"/>
+      <c r="F22" s="644"/>
+      <c r="G22" s="644"/>
+      <c r="H22" s="644"/>
+      <c r="I22" s="644"/>
+      <c r="J22" s="644"/>
       <c r="K22" s="357"/>
       <c r="L22" s="357"/>
       <c r="M22" s="357"/>
@@ -34625,12 +34622,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
@@ -34638,6 +34629,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>
@@ -35462,56 +35459,56 @@
       <c r="D6" s="282"/>
       <c r="E6" s="281"/>
       <c r="F6" s="281"/>
-      <c r="G6" s="687"/>
-      <c r="H6" s="687"/>
-      <c r="I6" s="687"/>
-      <c r="J6" s="687"/>
-      <c r="K6" s="687"/>
+      <c r="G6" s="689"/>
+      <c r="H6" s="689"/>
+      <c r="I6" s="689"/>
+      <c r="J6" s="689"/>
+      <c r="K6" s="689"/>
       <c r="L6" s="23"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="672" t="s">
+      <c r="A7" s="674" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="673"/>
-      <c r="C7" s="664" t="s">
+      <c r="B7" s="675"/>
+      <c r="C7" s="678" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="664" t="s">
+      <c r="D7" s="678" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="688" t="s">
+      <c r="E7" s="690" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="688" t="s">
+      <c r="F7" s="690" t="s">
         <v>314</v>
       </c>
-      <c r="G7" s="690" t="s">
+      <c r="G7" s="692" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="691"/>
-      <c r="I7" s="690" t="s">
+      <c r="H7" s="693"/>
+      <c r="I7" s="692" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="692"/>
+      <c r="J7" s="694"/>
       <c r="K7" s="280" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="660" t="s">
+      <c r="L7" s="665" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="660" t="s">
+      <c r="M7" s="665" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="278" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="674"/>
-      <c r="B8" s="675"/>
-      <c r="C8" s="665"/>
-      <c r="D8" s="665"/>
-      <c r="E8" s="689"/>
-      <c r="F8" s="689"/>
+      <c r="A8" s="676"/>
+      <c r="B8" s="677"/>
+      <c r="C8" s="679"/>
+      <c r="D8" s="679"/>
+      <c r="E8" s="691"/>
+      <c r="F8" s="691"/>
       <c r="G8" s="158" t="s">
         <v>110</v>
       </c>
@@ -35527,12 +35524,12 @@
       <c r="K8" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="661"/>
-      <c r="M8" s="661"/>
+      <c r="L8" s="666"/>
+      <c r="M8" s="666"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="693"/>
-      <c r="B9" s="694"/>
+      <c r="A9" s="687"/>
+      <c r="B9" s="688"/>
       <c r="C9" s="277" t="s">
         <v>196</v>
       </c>
@@ -35616,10 +35613,10 @@
         <f>J12+H12</f>
         <v>1548720</v>
       </c>
-      <c r="L12" s="678" t="s">
+      <c r="L12" s="661" t="s">
         <v>324</v>
       </c>
-      <c r="M12" s="678" t="s">
+      <c r="M12" s="661" t="s">
         <v>320</v>
       </c>
       <c r="N12" s="586"/>
@@ -35658,8 +35655,8 @@
         <f t="shared" ref="K13:K31" si="2">J13+H13</f>
         <v>159840</v>
       </c>
-      <c r="L13" s="678"/>
-      <c r="M13" s="678"/>
+      <c r="L13" s="661"/>
+      <c r="M13" s="661"/>
       <c r="N13" s="586"/>
     </row>
     <row r="14" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35695,8 +35692,8 @@
         <f t="shared" si="2"/>
         <v>276660</v>
       </c>
-      <c r="L14" s="678"/>
-      <c r="M14" s="678"/>
+      <c r="L14" s="661"/>
+      <c r="M14" s="661"/>
       <c r="N14" s="586"/>
     </row>
     <row r="15" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35732,8 +35729,8 @@
         <f t="shared" si="2"/>
         <v>322521</v>
       </c>
-      <c r="L15" s="678"/>
-      <c r="M15" s="678"/>
+      <c r="L15" s="661"/>
+      <c r="M15" s="661"/>
       <c r="N15" s="586"/>
     </row>
     <row r="16" spans="1:15" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35769,8 +35766,8 @@
         <f t="shared" si="2"/>
         <v>762075</v>
       </c>
-      <c r="L16" s="678"/>
-      <c r="M16" s="678"/>
+      <c r="L16" s="661"/>
+      <c r="M16" s="661"/>
       <c r="N16" s="586"/>
     </row>
     <row r="17" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35806,8 +35803,8 @@
         <f t="shared" si="2"/>
         <v>298650</v>
       </c>
-      <c r="L17" s="678"/>
-      <c r="M17" s="678"/>
+      <c r="L17" s="661"/>
+      <c r="M17" s="661"/>
       <c r="N17" s="586"/>
     </row>
     <row r="18" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35843,8 +35840,8 @@
         <f t="shared" si="2"/>
         <v>133450</v>
       </c>
-      <c r="L18" s="679"/>
-      <c r="M18" s="679"/>
+      <c r="L18" s="662"/>
+      <c r="M18" s="662"/>
       <c r="N18" s="586"/>
     </row>
     <row r="19" spans="1:14" s="241" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36356,11 +36353,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L12:L18"/>
-    <mergeCell ref="M12:M18"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -36369,6 +36361,11 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="M12:M18"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>
@@ -37187,52 +37184,52 @@
       <c r="C6" s="283"/>
       <c r="D6" s="282"/>
       <c r="E6" s="281"/>
-      <c r="F6" s="687"/>
-      <c r="G6" s="687"/>
-      <c r="H6" s="687"/>
-      <c r="I6" s="687"/>
-      <c r="J6" s="687"/>
+      <c r="F6" s="689"/>
+      <c r="G6" s="689"/>
+      <c r="H6" s="689"/>
+      <c r="I6" s="689"/>
+      <c r="J6" s="689"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="672" t="s">
+      <c r="A7" s="674" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="673"/>
-      <c r="C7" s="664" t="s">
+      <c r="B7" s="675"/>
+      <c r="C7" s="678" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="664" t="s">
+      <c r="D7" s="678" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="688" t="s">
+      <c r="E7" s="690" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="690" t="s">
+      <c r="F7" s="692" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="691"/>
-      <c r="H7" s="690" t="s">
+      <c r="G7" s="693"/>
+      <c r="H7" s="692" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="692"/>
+      <c r="I7" s="694"/>
       <c r="J7" s="280" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="660" t="s">
+      <c r="K7" s="665" t="s">
         <v>274</v>
       </c>
-      <c r="L7" s="660" t="s">
+      <c r="L7" s="665" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="278" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="674"/>
-      <c r="B8" s="675"/>
-      <c r="C8" s="665"/>
-      <c r="D8" s="665"/>
-      <c r="E8" s="689"/>
+      <c r="A8" s="676"/>
+      <c r="B8" s="677"/>
+      <c r="C8" s="679"/>
+      <c r="D8" s="679"/>
+      <c r="E8" s="691"/>
       <c r="F8" s="158" t="s">
         <v>110</v>
       </c>
@@ -37248,8 +37245,8 @@
       <c r="J8" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="661"/>
-      <c r="L8" s="661"/>
+      <c r="K8" s="666"/>
+      <c r="L8" s="666"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="697"/>
@@ -38262,27 +38259,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2a2a445e-c453-4f04-9b2f-8a0068eac90e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db23c72c-e112-43fc-8a02-148203d9c31c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Time xmlns="db23c72c-e112-43fc-8a02-148203d9c31c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368BEF076A962A43B6F9D3AD7FB3FB6F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcb0f6516c6be7fd66a54e395076b739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db23c72c-e112-43fc-8a02-148203d9c31c" xmlns:ns3="2a2a445e-c453-4f04-9b2f-8a0068eac90e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4bdf9d59a7f4f0d91d44646cabeafbf" ns2:_="" ns3:_="">
     <xsd:import namespace="db23c72c-e112-43fc-8a02-148203d9c31c"/>
@@ -38543,10 +38519,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2a2a445e-c453-4f04-9b2f-8a0068eac90e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db23c72c-e112-43fc-8a02-148203d9c31c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Time xmlns="db23c72c-e112-43fc-8a02-148203d9c31c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1D120-88D7-40A1-B049-705DFBF44AE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="db23c72c-e112-43fc-8a02-148203d9c31c"/>
+    <ds:schemaRef ds:uri="2a2a445e-c453-4f04-9b2f-8a0068eac90e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38569,20 +38577,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1D120-88D7-40A1-B049-705DFBF44AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADA3F12-DFA6-4FCB-9048-8273FD205CDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="db23c72c-e112-43fc-8a02-148203d9c31c"/>
-    <ds:schemaRef ds:uri="2a2a445e-c453-4f04-9b2f-8a0068eac90e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>